--- a/PythonCourse/Lecture11WhatsApp_Automation/PhoneBook.xlsx
+++ b/PythonCourse/Lecture11WhatsApp_Automation/PhoneBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NavttcDS\PythonCourse\Lecture11WhatsApp_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C500666-AD52-472E-A94C-F4217E31232B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D754A8DD-5F3E-4746-84EE-E104C1212064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BE009F38-E8B4-4675-8881-F64E24581275}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Phone</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>923062580995</t>
+  </si>
+  <si>
+    <t>923257004979</t>
   </si>
 </sst>
 </file>
@@ -399,15 +402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E67460-17A9-4506-AAAF-1873657FE1DD}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
@@ -430,6 +433,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
